--- a/DataDict/Allocation/Template_Allocation_data_dictionary_WaDE_August2020_v1.xlsx
+++ b/DataDict/Allocation/Template_Allocation_data_dictionary_WaDE_August2020_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\DataDict\Allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99D066-AB76-4453-8241-84FF68032721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B34A3-52A1-48F9-BDB9-122147945846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="195">
   <si>
     <t>OrganizationName</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>From a map? GPS? Where coordinate from? Full list available at: http://vocabulary.westernstateswater.org/coordinatemethod/.  Append if needed.</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>The Geographic Names Information System (GNIS), developed by the U.S. Geological Survey (USGS) in cooperation with the U.S. Board on Geographic Names (BGN), contains information about the official names for places, features, and areas in the 50 States, the District of Columbia, the territories and outlying areas of the United States, including Antarctica. It is the geographic names component of The National Map. The BGN maintains working relationships with State names authorities to cooperate in achieving the standardization of geographic names.</t>
@@ -1249,9 +1246,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1264,6 +1258,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1348,10 +1345,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1653,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2403CCCD-12BC-4468-8E1E-FDDA82B7D922}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,42 +1657,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
+      <c r="A1" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1712,73 +1705,73 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1798,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E092E-37FC-44C0-9387-B111C2DA4E7B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1842,54 +1835,54 @@
     </row>
     <row r="2" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="64" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>117</v>
-      </c>
       <c r="H3" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1912,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08C38F-342B-49D5-9FE3-F27BCCD90258}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>56</v>
@@ -1956,54 +1949,54 @@
     </row>
     <row r="2" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>107</v>
-      </c>
       <c r="C2" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>102</v>
-      </c>
       <c r="H2" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="67" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="54">
         <v>1</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="54">
         <v>10</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2025,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2085,19 +2078,19 @@
         <v>17839</v>
       </c>
       <c r="B3" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="D3" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>177</v>
-      </c>
       <c r="E3" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2120,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2180,7 +2173,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>69</v>
@@ -2191,13 +2184,13 @@
     </row>
     <row r="3" spans="1:8" s="70" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>72</v>
@@ -2235,7 +2228,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2268,13 +2261,13 @@
         <v>28</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>24</v>
@@ -2307,33 +2300,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="44" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="44" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>91</v>
-      </c>
       <c r="D2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>26</v>
@@ -2342,28 +2335,28 @@
         <v>59</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>148</v>
-      </c>
       <c r="P2" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="43" t="s">
-        <v>84</v>
+      <c r="S2" s="60" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="61" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -2371,10 +2364,10 @@
         <v>3703994</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="58">
         <v>39.581290000000003</v>
@@ -2386,7 +2379,7 @@
         <v>81</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>80</v>
@@ -2398,7 +2391,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L3" s="62" t="s">
         <v>65</v>
@@ -2410,10 +2403,10 @@
         <v>170601</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="59" t="s">
         <v>65</v>
@@ -2459,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF95F0A-A6D8-4C9F-9AAD-CE9D64114AA9}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,25 +2483,25 @@
     <col min="23" max="23" width="23.33203125" style="16" customWidth="1"/>
     <col min="24" max="24" width="36.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="30.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.88671875" style="94" customWidth="1"/>
+    <col min="26" max="26" width="20.88671875" style="93" customWidth="1"/>
     <col min="27" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="51" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>155</v>
-      </c>
       <c r="C1" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>165</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>166</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>44</v>
@@ -2535,7 +2528,7 @@
         <v>41</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O1" s="20" t="s">
         <v>52</v>
@@ -2544,7 +2537,7 @@
         <v>53</v>
       </c>
       <c r="Q1" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R1" s="50" t="s">
         <v>23</v>
@@ -2553,48 +2546,48 @@
         <v>31</v>
       </c>
       <c r="T1" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="W1" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z1" s="90" t="s">
         <v>163</v>
-      </c>
-      <c r="Z1" s="91" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="52" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>171</v>
-      </c>
       <c r="C2" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>43</v>
@@ -2603,31 +2596,31 @@
         <v>47</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L2" s="31" t="s">
         <v>39</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S2" s="31" t="s">
         <v>32</v>
@@ -2636,20 +2629,20 @@
         <v>47</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y2" s="31"/>
-      <c r="Z2" s="92" t="s">
-        <v>193</v>
+      <c r="Z2" s="91" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="74" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2660,75 +2653,75 @@
         <v>5.5648</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="95" t="s">
-        <v>195</v>
+      <c r="G3" s="94" t="s">
+        <v>194</v>
       </c>
       <c r="H3" s="89">
         <v>5344</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="95" t="s">
         <v>65</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K3" s="72">
         <v>0.75</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="96" t="s">
+      <c r="M3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="96" t="s">
+      <c r="N3" s="95" t="s">
         <v>65</v>
       </c>
       <c r="O3" s="72">
         <v>33</v>
       </c>
       <c r="P3" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q3" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q3" s="95" t="s">
         <v>65</v>
       </c>
       <c r="R3" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="T3" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="T3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="96" t="s">
+      <c r="U3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="96" t="s">
+      <c r="W3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="96" t="s">
+      <c r="X3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="Y3" s="96" t="s">
+      <c r="Y3" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="97" t="s">
+      <c r="Z3" s="96" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2758,7 +2751,7 @@
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="93"/>
+      <c r="Z4" s="92"/>
     </row>
   </sheetData>
   <hyperlinks>
